--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1904.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1904.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.062789519871246</v>
+        <v>1.932809352874756</v>
       </c>
       <c r="B1">
-        <v>3.374174514729985</v>
+        <v>3.159520387649536</v>
       </c>
       <c r="C1">
-        <v>2.829338355670231</v>
+        <v>2.9838547706604</v>
       </c>
       <c r="D1">
-        <v>2.238057150745775</v>
+        <v>1.024213433265686</v>
       </c>
       <c r="E1">
-        <v>1.294026658720166</v>
+        <v>0.6654894351959229</v>
       </c>
     </row>
   </sheetData>
